--- a/code.xlsx
+++ b/code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Responsive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1976EE02-089E-4A4A-BC3C-1E920EFDED97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F80D44-3005-4D66-B278-11E888C73980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
   <si>
     <t>OhMyWebSite</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>A-E-A-F</t>
+  </si>
+  <si>
+    <t>Jocker</t>
   </si>
 </sst>
 </file>
@@ -474,27 +477,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.53125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.19921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="1"/>
+    <col min="5" max="5" width="7.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -523,9 +526,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -543,21 +546,21 @@
         <v>19</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G10" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
+        <f t="shared" ref="G2:G11" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
+        &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H2" s="3" t="str">
-        <f t="shared" ref="H2:H10" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
-        <v xml:space="preserve">OhMyWebSite"
-            width="460"
-            height="315"
-            src="src/OhMyWebSite/index.html"
+        <f t="shared" ref="H2:H11" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
+        <v xml:space="preserve">Jocker"
+            width="460"
+            height="315"
+            src="src/Jocker/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -567,17 +570,17 @@
       </v>
       </c>
       <c r="I2" s="7" t="str">
-        <f t="shared" ref="I2:I10" si="2">_xlfn.CONCAT($G2,$H2)</f>
+        <f t="shared" ref="I2:I11" si="2">_xlfn.CONCAT($G2,$H2)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="OhMyWebSite"
-            width="460"
-            height="315"
-            src="src/OhMyWebSite/index.html"
+        &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Jocker"
+            width="460"
+            height="315"
+            src="src/Jocker/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -587,9 +590,9 @@
       </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -610,7 +613,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
+        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -618,10 +621,10 @@
       </c>
       <c r="H3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveCardHover"
-            width="460"
-            height="315"
-            src="src/ResponsiveCardHover/index.html"
+        <v xml:space="preserve">OhMyWebSite"
+            width="460"
+            height="315"
+            src="src/OhMyWebSite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -634,14 +637,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveCardHover"
-            width="460"
-            height="315"
-            src="src/ResponsiveCardHover/index.html"
+        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="OhMyWebSite"
+            width="460"
+            height="315"
+            src="src/OhMyWebSite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -651,9 +654,9 @@
       </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -674,7 +677,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
+        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -682,10 +685,10 @@
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveDesignCSSImageHoverOverlayEffects"
-            width="460"
-            height="315"
-            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
+        <v xml:space="preserve">ResponsiveCardHover"
+            width="460"
+            height="315"
+            src="src/ResponsiveCardHover/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -698,14 +701,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveDesignCSSImageHoverOverlayEffects"
-            width="460"
-            height="315"
-            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
+        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveCardHover"
+            width="460"
+            height="315"
+            src="src/ResponsiveCardHover/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -715,9 +718,9 @@
       </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -738,7 +741,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
+        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -746,10 +749,10 @@
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveFooterCSSGrid"
-            width="460"
-            height="315"
-            src="src/ResponsiveFooterCSSGrid/index.html"
+        <v xml:space="preserve">ResponsiveDesignCSSImageHoverOverlayEffects"
+            width="460"
+            height="315"
+            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -762,14 +765,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveFooterCSSGrid"
-            width="460"
-            height="315"
-            src="src/ResponsiveFooterCSSGrid/index.html"
+        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveDesignCSSImageHoverOverlayEffects"
+            width="460"
+            height="315"
+            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -779,9 +782,9 @@
       </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -802,7 +805,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
+        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -810,10 +813,10 @@
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveHeaderUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
+        <v xml:space="preserve">ResponsiveFooterCSSGrid"
+            width="460"
+            height="315"
+            src="src/ResponsiveFooterCSSGrid/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -826,14 +829,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveHeaderUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
+        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveFooterCSSGrid"
+            width="460"
+            height="315"
+            src="src/ResponsiveFooterCSSGrid/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -843,9 +846,9 @@
       </v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -866,7 +869,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
+        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -874,10 +877,10 @@
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveTestimonialSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveTestimonialSlider/index.html"
+        <v xml:space="preserve">ResponsiveHeaderUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -890,14 +893,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveTestimonialSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveTestimonialSlider/index.html"
+        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveHeaderUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -907,9 +910,9 @@
       </v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -930,7 +933,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
+        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -938,10 +941,10 @@
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
+        <v xml:space="preserve">ResponsiveTestimonialSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveTestimonialSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -954,14 +957,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
+        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveTestimonialSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveTestimonialSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -971,9 +974,9 @@
       </v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -994,7 +997,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
+        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1002,10 +1005,10 @@
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveWebsite-03VideoSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+        <v xml:space="preserve">ResponsiveWebsite-02"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1018,14 +1021,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-03VideoSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveWebsite-02"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1035,9 +1038,9 @@
       </v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1058,7 +1061,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;
+        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1066,6 +1069,70 @@
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">ResponsiveWebsite-03VideoSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveWebsite-03VideoSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">ResponsiveWebsiteFood"
             width="460"
             height="315"
@@ -1078,7 +1145,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I10" s="7" t="str">
+      <c r="I11" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;

--- a/code.xlsx
+++ b/code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Responsive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F80D44-3005-4D66-B278-11E888C73980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11C55D3-2153-4569-A477-C9532F75FBCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>OhMyWebSite</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Jocker</t>
+  </si>
+  <si>
+    <t>ResponsiveLorukiWebsite</t>
   </si>
 </sst>
 </file>
@@ -477,27 +480,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -526,7 +529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -546,7 +549,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G11" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
+        <f t="shared" ref="G2:G12" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
@@ -556,7 +559,7 @@
             title="</v>
       </c>
       <c r="H2" s="3" t="str">
-        <f t="shared" ref="H2:H11" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
+        <f t="shared" ref="H2:H12" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
         <v xml:space="preserve">Jocker"
             width="460"
             height="315"
@@ -570,7 +573,7 @@
       </v>
       </c>
       <c r="I2" s="7" t="str">
-        <f t="shared" ref="I2:I11" si="2">_xlfn.CONCAT($G2,$H2)</f>
+        <f t="shared" ref="I2:I12" si="2">_xlfn.CONCAT($G2,$H2)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
@@ -590,7 +593,7 @@
       </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -654,7 +657,7 @@
       </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -718,7 +721,7 @@
       </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -782,7 +785,7 @@
       </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -846,7 +849,7 @@
       </v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -910,9 +913,9 @@
       </v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -933,7 +936,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
+        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -941,10 +944,10 @@
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveTestimonialSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveTestimonialSlider/index.html"
+        <v xml:space="preserve">ResponsiveLorukiWebsite"
+            width="460"
+            height="315"
+            src="src/ResponsiveLorukiWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -957,14 +960,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveTestimonialSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveTestimonialSlider/index.html"
+        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveLorukiWebsite"
+            width="460"
+            height="315"
+            src="src/ResponsiveLorukiWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -974,9 +977,9 @@
       </v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -997,7 +1000,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
+        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1005,10 +1008,10 @@
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
+        <v xml:space="preserve">ResponsiveTestimonialSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveTestimonialSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1021,14 +1024,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
+        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveTestimonialSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveTestimonialSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1038,9 +1041,9 @@
       </v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1061,7 +1064,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
+        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1069,10 +1072,10 @@
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveWebsite-03VideoSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+        <v xml:space="preserve">ResponsiveWebsite-02"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1085,14 +1088,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-03VideoSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveWebsite-02"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1102,9 +1105,9 @@
       </v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1125,7 +1128,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;
+        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1133,6 +1136,70 @@
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">ResponsiveWebsite-03VideoSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveWebsite-03VideoSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">ResponsiveWebsiteFood"
             width="460"
             height="315"
@@ -1145,7 +1212,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I11" s="7" t="str">
+      <c r="I12" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;

--- a/code.xlsx
+++ b/code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Responsive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11C55D3-2153-4569-A477-C9532F75FBCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982AD003-E844-467F-9681-62CDB024CD42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
   <si>
     <t>OhMyWebSite</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>ResponsiveLorukiWebsite</t>
+  </si>
+  <si>
+    <t>MinimalBlogWebsite</t>
   </si>
 </sst>
 </file>
@@ -480,27 +483,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.73046875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="7.265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -529,7 +532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -549,7 +552,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G12" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
+        <f t="shared" ref="G2:G13" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
@@ -559,7 +562,7 @@
             title="</v>
       </c>
       <c r="H2" s="3" t="str">
-        <f t="shared" ref="H2:H12" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
+        <f t="shared" ref="H2:H13" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
         <v xml:space="preserve">Jocker"
             width="460"
             height="315"
@@ -573,7 +576,7 @@
       </v>
       </c>
       <c r="I2" s="7" t="str">
-        <f t="shared" ref="I2:I12" si="2">_xlfn.CONCAT($G2,$H2)</f>
+        <f t="shared" ref="I2:I13" si="2">_xlfn.CONCAT($G2,$H2)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
@@ -593,9 +596,9 @@
       </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -616,7 +619,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
+        &lt;a href="src/MinimalBlogWebsite/index.html" target="_blank"&gt;MinimalBlogWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -624,10 +627,10 @@
       </c>
       <c r="H3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">OhMyWebSite"
-            width="460"
-            height="315"
-            src="src/OhMyWebSite/index.html"
+        <v xml:space="preserve">MinimalBlogWebsite"
+            width="460"
+            height="315"
+            src="src/MinimalBlogWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -640,14 +643,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="OhMyWebSite"
-            width="460"
-            height="315"
-            src="src/OhMyWebSite/index.html"
+        &lt;a href="src/MinimalBlogWebsite/index.html" target="_blank"&gt;MinimalBlogWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="MinimalBlogWebsite"
+            width="460"
+            height="315"
+            src="src/MinimalBlogWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -657,9 +660,9 @@
       </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -680,7 +683,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
+        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -688,10 +691,10 @@
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveCardHover"
-            width="460"
-            height="315"
-            src="src/ResponsiveCardHover/index.html"
+        <v xml:space="preserve">OhMyWebSite"
+            width="460"
+            height="315"
+            src="src/OhMyWebSite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -704,14 +707,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveCardHover"
-            width="460"
-            height="315"
-            src="src/ResponsiveCardHover/index.html"
+        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="OhMyWebSite"
+            width="460"
+            height="315"
+            src="src/OhMyWebSite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -721,9 +724,9 @@
       </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -744,7 +747,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
+        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -752,10 +755,10 @@
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveDesignCSSImageHoverOverlayEffects"
-            width="460"
-            height="315"
-            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
+        <v xml:space="preserve">ResponsiveCardHover"
+            width="460"
+            height="315"
+            src="src/ResponsiveCardHover/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -768,14 +771,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveDesignCSSImageHoverOverlayEffects"
-            width="460"
-            height="315"
-            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
+        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveCardHover"
+            width="460"
+            height="315"
+            src="src/ResponsiveCardHover/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -785,9 +788,9 @@
       </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -808,7 +811,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
+        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -816,10 +819,10 @@
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveFooterCSSGrid"
-            width="460"
-            height="315"
-            src="src/ResponsiveFooterCSSGrid/index.html"
+        <v xml:space="preserve">ResponsiveDesignCSSImageHoverOverlayEffects"
+            width="460"
+            height="315"
+            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -832,14 +835,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveFooterCSSGrid"
-            width="460"
-            height="315"
-            src="src/ResponsiveFooterCSSGrid/index.html"
+        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveDesignCSSImageHoverOverlayEffects"
+            width="460"
+            height="315"
+            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -849,9 +852,9 @@
       </v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -872,7 +875,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
+        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -880,10 +883,10 @@
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveHeaderUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
+        <v xml:space="preserve">ResponsiveFooterCSSGrid"
+            width="460"
+            height="315"
+            src="src/ResponsiveFooterCSSGrid/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -896,14 +899,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveHeaderUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
+        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveFooterCSSGrid"
+            width="460"
+            height="315"
+            src="src/ResponsiveFooterCSSGrid/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -913,9 +916,9 @@
       </v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -936,7 +939,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
+        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -944,10 +947,10 @@
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveLorukiWebsite"
-            width="460"
-            height="315"
-            src="src/ResponsiveLorukiWebsite/index.html"
+        <v xml:space="preserve">ResponsiveHeaderUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -960,14 +963,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveLorukiWebsite"
-            width="460"
-            height="315"
-            src="src/ResponsiveLorukiWebsite/index.html"
+        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveHeaderUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -977,9 +980,9 @@
       </v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1000,7 +1003,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
+        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1008,10 +1011,10 @@
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveTestimonialSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveTestimonialSlider/index.html"
+        <v xml:space="preserve">ResponsiveLorukiWebsite"
+            width="460"
+            height="315"
+            src="src/ResponsiveLorukiWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1024,14 +1027,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveTestimonialSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveTestimonialSlider/index.html"
+        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveLorukiWebsite"
+            width="460"
+            height="315"
+            src="src/ResponsiveLorukiWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1041,9 +1044,9 @@
       </v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1064,7 +1067,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
+        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1072,10 +1075,10 @@
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
+        <v xml:space="preserve">ResponsiveTestimonialSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveTestimonialSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1088,14 +1091,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
+        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveTestimonialSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveTestimonialSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1105,9 +1108,9 @@
       </v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1128,7 +1131,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
+        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1136,10 +1139,10 @@
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveWebsite-03VideoSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+        <v xml:space="preserve">ResponsiveWebsite-02"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1152,14 +1155,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-03VideoSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveWebsite-02"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1169,9 +1172,9 @@
       </v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -1192,7 +1195,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;
+        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1200,6 +1203,70 @@
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">ResponsiveWebsite-03VideoSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveWebsite-03VideoSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">ResponsiveWebsiteFood"
             width="460"
             height="315"
@@ -1212,7 +1279,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I12" s="7" t="str">
+      <c r="I13" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;

--- a/code.xlsx
+++ b/code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Responsive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982AD003-E844-467F-9681-62CDB024CD42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C17FCB-5ABB-4C7F-8E68-C5BC9D97FCF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
   <si>
     <t>OhMyWebSite</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>MinimalBlogWebsite</t>
+  </si>
+  <si>
+    <t>PortfolioWebsite</t>
   </si>
 </sst>
 </file>
@@ -483,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -552,7 +555,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G13" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
+        <f t="shared" ref="G2:G14" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
@@ -562,7 +565,7 @@
             title="</v>
       </c>
       <c r="H2" s="3" t="str">
-        <f t="shared" ref="H2:H13" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
+        <f t="shared" ref="H2:H14" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
         <v xml:space="preserve">Jocker"
             width="460"
             height="315"
@@ -576,7 +579,7 @@
       </v>
       </c>
       <c r="I2" s="7" t="str">
-        <f t="shared" ref="I2:I13" si="2">_xlfn.CONCAT($G2,$H2)</f>
+        <f t="shared" ref="I2:I14" si="2">_xlfn.CONCAT($G2,$H2)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
@@ -726,7 +729,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -747,7 +750,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
+        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -755,10 +758,10 @@
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveCardHover"
-            width="460"
-            height="315"
-            src="src/ResponsiveCardHover/index.html"
+        <v xml:space="preserve">PortfolioWebsite"
+            width="460"
+            height="315"
+            src="src/PortfolioWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -771,14 +774,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveCardHover"
-            width="460"
-            height="315"
-            src="src/ResponsiveCardHover/index.html"
+        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PortfolioWebsite"
+            width="460"
+            height="315"
+            src="src/PortfolioWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -790,7 +793,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -811,7 +814,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
+        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -819,10 +822,10 @@
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveDesignCSSImageHoverOverlayEffects"
-            width="460"
-            height="315"
-            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
+        <v xml:space="preserve">ResponsiveCardHover"
+            width="460"
+            height="315"
+            src="src/ResponsiveCardHover/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -835,14 +838,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveDesignCSSImageHoverOverlayEffects"
-            width="460"
-            height="315"
-            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
+        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveCardHover"
+            width="460"
+            height="315"
+            src="src/ResponsiveCardHover/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -854,7 +857,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -875,7 +878,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
+        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -883,10 +886,10 @@
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveFooterCSSGrid"
-            width="460"
-            height="315"
-            src="src/ResponsiveFooterCSSGrid/index.html"
+        <v xml:space="preserve">ResponsiveDesignCSSImageHoverOverlayEffects"
+            width="460"
+            height="315"
+            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -899,14 +902,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveFooterCSSGrid"
-            width="460"
-            height="315"
-            src="src/ResponsiveFooterCSSGrid/index.html"
+        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveDesignCSSImageHoverOverlayEffects"
+            width="460"
+            height="315"
+            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -918,7 +921,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -939,7 +942,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
+        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -947,10 +950,10 @@
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveHeaderUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
+        <v xml:space="preserve">ResponsiveFooterCSSGrid"
+            width="460"
+            height="315"
+            src="src/ResponsiveFooterCSSGrid/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -963,14 +966,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveHeaderUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
+        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveFooterCSSGrid"
+            width="460"
+            height="315"
+            src="src/ResponsiveFooterCSSGrid/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -982,7 +985,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1003,7 +1006,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
+        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1011,10 +1014,10 @@
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveLorukiWebsite"
-            width="460"
-            height="315"
-            src="src/ResponsiveLorukiWebsite/index.html"
+        <v xml:space="preserve">ResponsiveHeaderUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1027,14 +1030,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveLorukiWebsite"
-            width="460"
-            height="315"
-            src="src/ResponsiveLorukiWebsite/index.html"
+        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveHeaderUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1046,7 +1049,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1067,7 +1070,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
+        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1075,10 +1078,10 @@
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveTestimonialSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveTestimonialSlider/index.html"
+        <v xml:space="preserve">ResponsiveLorukiWebsite"
+            width="460"
+            height="315"
+            src="src/ResponsiveLorukiWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1091,14 +1094,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveTestimonialSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveTestimonialSlider/index.html"
+        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveLorukiWebsite"
+            width="460"
+            height="315"
+            src="src/ResponsiveLorukiWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1110,7 +1113,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1131,7 +1134,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
+        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1139,10 +1142,10 @@
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
+        <v xml:space="preserve">ResponsiveTestimonialSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveTestimonialSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1155,14 +1158,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
+        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveTestimonialSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveTestimonialSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1174,7 +1177,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -1195,7 +1198,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
+        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1203,10 +1206,10 @@
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveWebsite-03VideoSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+        <v xml:space="preserve">ResponsiveWebsite-02"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1219,14 +1222,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-03VideoSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveWebsite-02"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1238,7 +1241,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1259,7 +1262,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;
+        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1267,6 +1270,70 @@
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">ResponsiveWebsite-03VideoSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveWebsite-03VideoSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">ResponsiveWebsiteFood"
             width="460"
             height="315"
@@ -1279,7 +1346,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I13" s="7" t="str">
+      <c r="I14" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;

--- a/code.xlsx
+++ b/code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Responsive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C17FCB-5ABB-4C7F-8E68-C5BC9D97FCF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A793DEDA-A63A-4229-A603-CF7184271E3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
   <si>
     <t>OhMyWebSite</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>PortfolioWebsite</t>
+  </si>
+  <si>
+    <t>codev-ecommerce-website</t>
+  </si>
+  <si>
+    <t>codev-portfolio-website</t>
+  </si>
+  <si>
+    <t>codev-travel-website</t>
+  </si>
+  <si>
+    <t>codev-video-background</t>
   </si>
 </sst>
 </file>
@@ -486,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I2" sqref="I2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -537,7 +549,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -555,21 +567,21 @@
         <v>19</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G14" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
+        <f t="shared" ref="G2:G5" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
+        &lt;a href="src/codev-ecommerce-website/index.html" target="_blank"&gt;codev-ecommerce-website&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H2" s="3" t="str">
-        <f t="shared" ref="H2:H14" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
-        <v xml:space="preserve">Jocker"
-            width="460"
-            height="315"
-            src="src/Jocker/index.html"
+        <f t="shared" ref="H2:H5" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
+        <v xml:space="preserve">codev-ecommerce-website"
+            width="460"
+            height="315"
+            src="src/codev-ecommerce-website/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -579,17 +591,17 @@
       </v>
       </c>
       <c r="I2" s="7" t="str">
-        <f t="shared" ref="I2:I14" si="2">_xlfn.CONCAT($G2,$H2)</f>
+        <f t="shared" ref="I2:I5" si="2">_xlfn.CONCAT($G2,$H2)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Jocker"
-            width="460"
-            height="315"
-            src="src/Jocker/index.html"
+        &lt;a href="src/codev-ecommerce-website/index.html" target="_blank"&gt;codev-ecommerce-website&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="codev-ecommerce-website"
+            width="460"
+            height="315"
+            src="src/codev-ecommerce-website/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -601,7 +613,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -622,7 +634,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/MinimalBlogWebsite/index.html" target="_blank"&gt;MinimalBlogWebsite&lt;/a&gt;
+        &lt;a href="src/codev-portfolio-website/index.html" target="_blank"&gt;codev-portfolio-website&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -630,10 +642,10 @@
       </c>
       <c r="H3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">MinimalBlogWebsite"
-            width="460"
-            height="315"
-            src="src/MinimalBlogWebsite/index.html"
+        <v xml:space="preserve">codev-portfolio-website"
+            width="460"
+            height="315"
+            src="src/codev-portfolio-website/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -646,14 +658,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/MinimalBlogWebsite/index.html" target="_blank"&gt;MinimalBlogWebsite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="MinimalBlogWebsite"
-            width="460"
-            height="315"
-            src="src/MinimalBlogWebsite/index.html"
+        &lt;a href="src/codev-portfolio-website/index.html" target="_blank"&gt;codev-portfolio-website&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="codev-portfolio-website"
+            width="460"
+            height="315"
+            src="src/codev-portfolio-website/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -665,7 +677,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -686,7 +698,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
+        &lt;a href="src/codev-travel-website/index.html" target="_blank"&gt;codev-travel-website&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -694,10 +706,10 @@
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">OhMyWebSite"
-            width="460"
-            height="315"
-            src="src/OhMyWebSite/index.html"
+        <v xml:space="preserve">codev-travel-website"
+            width="460"
+            height="315"
+            src="src/codev-travel-website/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -710,14 +722,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="OhMyWebSite"
-            width="460"
-            height="315"
-            src="src/OhMyWebSite/index.html"
+        &lt;a href="src/codev-travel-website/index.html" target="_blank"&gt;codev-travel-website&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="codev-travel-website"
+            width="460"
+            height="315"
+            src="src/codev-travel-website/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -729,7 +741,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -750,7 +762,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
+        &lt;a href="src/codev-video-background/index.html" target="_blank"&gt;codev-video-background&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -758,10 +770,10 @@
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">PortfolioWebsite"
-            width="460"
-            height="315"
-            src="src/PortfolioWebsite/index.html"
+        <v xml:space="preserve">codev-video-background"
+            width="460"
+            height="315"
+            src="src/codev-video-background/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -774,14 +786,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PortfolioWebsite"
-            width="460"
-            height="315"
-            src="src/PortfolioWebsite/index.html"
+        &lt;a href="src/codev-video-background/index.html" target="_blank"&gt;codev-video-background&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="codev-video-background"
+            width="460"
+            height="315"
+            src="src/codev-video-background/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -793,7 +805,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -811,21 +823,21 @@
         <v>19</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G6:G18" si="3">_xlfn.CONCAT($B6,$A6,$C6,$A6,$D6)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
+        &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveCardHover"
-            width="460"
-            height="315"
-            src="src/ResponsiveCardHover/index.html"
+        <f t="shared" ref="H6:H18" si="4">_xlfn.CONCAT($A6,$E6,$A6,$F6)</f>
+        <v xml:space="preserve">Jocker"
+            width="460"
+            height="315"
+            src="src/Jocker/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -835,17 +847,17 @@
       </v>
       </c>
       <c r="I6" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I6:I18" si="5">_xlfn.CONCAT($G6,$H6)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveCardHover"
-            width="460"
-            height="315"
-            src="src/ResponsiveCardHover/index.html"
+        &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Jocker"
+            width="460"
+            height="315"
+            src="src/Jocker/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -857,7 +869,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -875,21 +887,21 @@
         <v>19</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
+        &lt;a href="src/MinimalBlogWebsite/index.html" target="_blank"&gt;MinimalBlogWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveDesignCSSImageHoverOverlayEffects"
-            width="460"
-            height="315"
-            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">MinimalBlogWebsite"
+            width="460"
+            height="315"
+            src="src/MinimalBlogWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -899,17 +911,17 @@
       </v>
       </c>
       <c r="I7" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveDesignCSSImageHoverOverlayEffects"
-            width="460"
-            height="315"
-            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
+        &lt;a href="src/MinimalBlogWebsite/index.html" target="_blank"&gt;MinimalBlogWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="MinimalBlogWebsite"
+            width="460"
+            height="315"
+            src="src/MinimalBlogWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -921,7 +933,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -939,21 +951,21 @@
         <v>19</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
+        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveFooterCSSGrid"
-            width="460"
-            height="315"
-            src="src/ResponsiveFooterCSSGrid/index.html"
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">OhMyWebSite"
+            width="460"
+            height="315"
+            src="src/OhMyWebSite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -963,17 +975,17 @@
       </v>
       </c>
       <c r="I8" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveFooterCSSGrid"
-            width="460"
-            height="315"
-            src="src/ResponsiveFooterCSSGrid/index.html"
+        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="OhMyWebSite"
+            width="460"
+            height="315"
+            src="src/OhMyWebSite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -985,7 +997,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1003,21 +1015,21 @@
         <v>19</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
+        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveHeaderUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">PortfolioWebsite"
+            width="460"
+            height="315"
+            src="src/PortfolioWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1027,17 +1039,17 @@
       </v>
       </c>
       <c r="I9" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveHeaderUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
+        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PortfolioWebsite"
+            width="460"
+            height="315"
+            src="src/PortfolioWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1049,7 +1061,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1067,21 +1079,21 @@
         <v>19</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
+        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveLorukiWebsite"
-            width="460"
-            height="315"
-            src="src/ResponsiveLorukiWebsite/index.html"
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">ResponsiveCardHover"
+            width="460"
+            height="315"
+            src="src/ResponsiveCardHover/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1091,17 +1103,17 @@
       </v>
       </c>
       <c r="I10" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveLorukiWebsite"
-            width="460"
-            height="315"
-            src="src/ResponsiveLorukiWebsite/index.html"
+        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveCardHover"
+            width="460"
+            height="315"
+            src="src/ResponsiveCardHover/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1113,7 +1125,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1131,21 +1143,21 @@
         <v>19</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
+        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveTestimonialSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveTestimonialSlider/index.html"
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">ResponsiveDesignCSSImageHoverOverlayEffects"
+            width="460"
+            height="315"
+            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1155,17 +1167,17 @@
       </v>
       </c>
       <c r="I11" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveTestimonialSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveTestimonialSlider/index.html"
+        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveDesignCSSImageHoverOverlayEffects"
+            width="460"
+            height="315"
+            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1177,7 +1189,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -1195,21 +1207,21 @@
         <v>19</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
+        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">ResponsiveFooterCSSGrid"
+            width="460"
+            height="315"
+            src="src/ResponsiveFooterCSSGrid/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1219,17 +1231,17 @@
       </v>
       </c>
       <c r="I12" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
+        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveFooterCSSGrid"
+            width="460"
+            height="315"
+            src="src/ResponsiveFooterCSSGrid/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1241,7 +1253,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1259,21 +1271,21 @@
         <v>19</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
+        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveWebsite-03VideoSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">ResponsiveHeaderUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1283,17 +1295,17 @@
       </v>
       </c>
       <c r="I13" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-03VideoSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveHeaderUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1305,7 +1317,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1323,17 +1335,273 @@
         <v>19</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">ResponsiveLorukiWebsite"
+            width="460"
+            height="315"
+            src="src/ResponsiveLorukiWebsite/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveLorukiWebsite"
+            width="460"
+            height="315"
+            src="src/ResponsiveLorukiWebsite/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">ResponsiveTestimonialSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveTestimonialSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveTestimonialSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveTestimonialSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">ResponsiveWebsite-02"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-02/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveWebsite-02"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-02/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">ResponsiveWebsite-03VideoSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveWebsite-03VideoSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
         &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
-      <c r="H14" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">ResponsiveWebsiteFood"
             width="460"
             height="315"
@@ -1346,8 +1614,8 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I14" s="7" t="str">
-        <f t="shared" si="2"/>
+      <c r="I18" s="7" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;

--- a/code.xlsx
+++ b/code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Responsive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A793DEDA-A63A-4229-A603-CF7184271E3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81B4BAA-955D-40C1-80BA-71C0906584EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
   <si>
     <t>OhMyWebSite</t>
   </si>
@@ -130,18 +130,6 @@
   </si>
   <si>
     <t>PortfolioWebsite</t>
-  </si>
-  <si>
-    <t>codev-ecommerce-website</t>
-  </si>
-  <si>
-    <t>codev-portfolio-website</t>
-  </si>
-  <si>
-    <t>codev-travel-website</t>
-  </si>
-  <si>
-    <t>codev-video-background</t>
   </si>
 </sst>
 </file>
@@ -498,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I5"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -549,7 +537,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -567,21 +555,21 @@
         <v>19</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G5" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
+        <f t="shared" ref="G2:G14" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/codev-ecommerce-website/index.html" target="_blank"&gt;codev-ecommerce-website&lt;/a&gt;
+        &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H2" s="3" t="str">
-        <f t="shared" ref="H2:H5" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
-        <v xml:space="preserve">codev-ecommerce-website"
-            width="460"
-            height="315"
-            src="src/codev-ecommerce-website/index.html"
+        <f t="shared" ref="H2:H14" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
+        <v xml:space="preserve">Jocker"
+            width="460"
+            height="315"
+            src="src/Jocker/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -591,17 +579,17 @@
       </v>
       </c>
       <c r="I2" s="7" t="str">
-        <f t="shared" ref="I2:I5" si="2">_xlfn.CONCAT($G2,$H2)</f>
+        <f t="shared" ref="I2:I14" si="2">_xlfn.CONCAT($G2,$H2)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/codev-ecommerce-website/index.html" target="_blank"&gt;codev-ecommerce-website&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="codev-ecommerce-website"
-            width="460"
-            height="315"
-            src="src/codev-ecommerce-website/index.html"
+        &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Jocker"
+            width="460"
+            height="315"
+            src="src/Jocker/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -613,7 +601,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -634,7 +622,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/codev-portfolio-website/index.html" target="_blank"&gt;codev-portfolio-website&lt;/a&gt;
+        &lt;a href="src/MinimalBlogWebsite/index.html" target="_blank"&gt;MinimalBlogWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -642,10 +630,10 @@
       </c>
       <c r="H3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">codev-portfolio-website"
-            width="460"
-            height="315"
-            src="src/codev-portfolio-website/index.html"
+        <v xml:space="preserve">MinimalBlogWebsite"
+            width="460"
+            height="315"
+            src="src/MinimalBlogWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -658,14 +646,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/codev-portfolio-website/index.html" target="_blank"&gt;codev-portfolio-website&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="codev-portfolio-website"
-            width="460"
-            height="315"
-            src="src/codev-portfolio-website/index.html"
+        &lt;a href="src/MinimalBlogWebsite/index.html" target="_blank"&gt;MinimalBlogWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="MinimalBlogWebsite"
+            width="460"
+            height="315"
+            src="src/MinimalBlogWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -677,7 +665,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -698,7 +686,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/codev-travel-website/index.html" target="_blank"&gt;codev-travel-website&lt;/a&gt;
+        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -706,10 +694,10 @@
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">codev-travel-website"
-            width="460"
-            height="315"
-            src="src/codev-travel-website/index.html"
+        <v xml:space="preserve">OhMyWebSite"
+            width="460"
+            height="315"
+            src="src/OhMyWebSite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -722,14 +710,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/codev-travel-website/index.html" target="_blank"&gt;codev-travel-website&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="codev-travel-website"
-            width="460"
-            height="315"
-            src="src/codev-travel-website/index.html"
+        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="OhMyWebSite"
+            width="460"
+            height="315"
+            src="src/OhMyWebSite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -741,7 +729,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -762,7 +750,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/codev-video-background/index.html" target="_blank"&gt;codev-video-background&lt;/a&gt;
+        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -770,10 +758,10 @@
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">codev-video-background"
-            width="460"
-            height="315"
-            src="src/codev-video-background/index.html"
+        <v xml:space="preserve">PortfolioWebsite"
+            width="460"
+            height="315"
+            src="src/PortfolioWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -786,14 +774,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/codev-video-background/index.html" target="_blank"&gt;codev-video-background&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="codev-video-background"
-            width="460"
-            height="315"
-            src="src/codev-video-background/index.html"
+        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PortfolioWebsite"
+            width="460"
+            height="315"
+            src="src/PortfolioWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -805,7 +793,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -823,21 +811,21 @@
         <v>19</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f t="shared" ref="G6:G18" si="3">_xlfn.CONCAT($B6,$A6,$C6,$A6,$D6)</f>
+        <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
+        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H6" s="3" t="str">
-        <f t="shared" ref="H6:H18" si="4">_xlfn.CONCAT($A6,$E6,$A6,$F6)</f>
-        <v xml:space="preserve">Jocker"
-            width="460"
-            height="315"
-            src="src/Jocker/index.html"
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">ResponsiveCardHover"
+            width="460"
+            height="315"
+            src="src/ResponsiveCardHover/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -847,17 +835,17 @@
       </v>
       </c>
       <c r="I6" s="7" t="str">
-        <f t="shared" ref="I6:I18" si="5">_xlfn.CONCAT($G6,$H6)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Jocker"
-            width="460"
-            height="315"
-            src="src/Jocker/index.html"
+        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveCardHover"
+            width="460"
+            height="315"
+            src="src/ResponsiveCardHover/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -869,7 +857,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -887,21 +875,21 @@
         <v>19</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/MinimalBlogWebsite/index.html" target="_blank"&gt;MinimalBlogWebsite&lt;/a&gt;
+        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H7" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">MinimalBlogWebsite"
-            width="460"
-            height="315"
-            src="src/MinimalBlogWebsite/index.html"
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">ResponsiveDesignCSSImageHoverOverlayEffects"
+            width="460"
+            height="315"
+            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -911,17 +899,17 @@
       </v>
       </c>
       <c r="I7" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/MinimalBlogWebsite/index.html" target="_blank"&gt;MinimalBlogWebsite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="MinimalBlogWebsite"
-            width="460"
-            height="315"
-            src="src/MinimalBlogWebsite/index.html"
+        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveDesignCSSImageHoverOverlayEffects"
+            width="460"
+            height="315"
+            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -933,7 +921,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -951,21 +939,21 @@
         <v>19</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
+        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H8" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">OhMyWebSite"
-            width="460"
-            height="315"
-            src="src/OhMyWebSite/index.html"
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">ResponsiveFooterCSSGrid"
+            width="460"
+            height="315"
+            src="src/ResponsiveFooterCSSGrid/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -975,17 +963,17 @@
       </v>
       </c>
       <c r="I8" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="OhMyWebSite"
-            width="460"
-            height="315"
-            src="src/OhMyWebSite/index.html"
+        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveFooterCSSGrid"
+            width="460"
+            height="315"
+            src="src/ResponsiveFooterCSSGrid/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -997,7 +985,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1015,21 +1003,21 @@
         <v>19</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
+        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H9" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">PortfolioWebsite"
-            width="460"
-            height="315"
-            src="src/PortfolioWebsite/index.html"
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">ResponsiveHeaderUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1039,17 +1027,17 @@
       </v>
       </c>
       <c r="I9" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PortfolioWebsite"
-            width="460"
-            height="315"
-            src="src/PortfolioWebsite/index.html"
+        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveHeaderUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1061,7 +1049,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1079,21 +1067,21 @@
         <v>19</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
+        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H10" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveCardHover"
-            width="460"
-            height="315"
-            src="src/ResponsiveCardHover/index.html"
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">ResponsiveLorukiWebsite"
+            width="460"
+            height="315"
+            src="src/ResponsiveLorukiWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1103,17 +1091,17 @@
       </v>
       </c>
       <c r="I10" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveCardHover"
-            width="460"
-            height="315"
-            src="src/ResponsiveCardHover/index.html"
+        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveLorukiWebsite"
+            width="460"
+            height="315"
+            src="src/ResponsiveLorukiWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1125,7 +1113,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1143,21 +1131,21 @@
         <v>19</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
+        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H11" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveDesignCSSImageHoverOverlayEffects"
-            width="460"
-            height="315"
-            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">ResponsiveTestimonialSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveTestimonialSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1167,17 +1155,17 @@
       </v>
       </c>
       <c r="I11" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveDesignCSSImageHoverOverlayEffects"
-            width="460"
-            height="315"
-            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
+        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveTestimonialSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveTestimonialSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1189,7 +1177,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -1207,21 +1195,21 @@
         <v>19</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
+        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H12" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveFooterCSSGrid"
-            width="460"
-            height="315"
-            src="src/ResponsiveFooterCSSGrid/index.html"
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">ResponsiveWebsite-02"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1231,17 +1219,17 @@
       </v>
       </c>
       <c r="I12" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveFooterCSSGrid"
-            width="460"
-            height="315"
-            src="src/ResponsiveFooterCSSGrid/index.html"
+        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveWebsite-02"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1253,7 +1241,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1271,21 +1259,21 @@
         <v>19</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
+        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H13" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveHeaderUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">ResponsiveWebsite-03VideoSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-03VideoSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1295,17 +1283,17 @@
       </v>
       </c>
       <c r="I13" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveHeaderUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
+        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveWebsite-03VideoSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-03VideoSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1317,7 +1305,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1335,21 +1323,21 @@
         <v>19</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
+        &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H14" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveLorukiWebsite"
-            width="460"
-            height="315"
-            src="src/ResponsiveLorukiWebsite/index.html"
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">ResponsiveWebsiteFood"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsiteFood/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1359,263 +1347,7 @@
       </v>
       </c>
       <c r="I14" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveLorukiWebsite"
-            width="460"
-            height="315"
-            src="src/ResponsiveLorukiWebsite/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="</v>
-      </c>
-      <c r="H15" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveTestimonialSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveTestimonialSlider/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-      <c r="I15" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveTestimonialSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveTestimonialSlider/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="</v>
-      </c>
-      <c r="H16" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-      <c r="I16" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="</v>
-      </c>
-      <c r="H17" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveWebsite-03VideoSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-03VideoSlider/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-      <c r="I17" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-03VideoSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-03VideoSlider/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="</v>
-      </c>
-      <c r="H18" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveWebsiteFood"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsiteFood/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-      <c r="I18" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;

--- a/code.xlsx
+++ b/code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Responsive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81B4BAA-955D-40C1-80BA-71C0906584EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58523F7D-80AF-4C0A-859F-724FDA1EA273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="28">
   <si>
     <t>OhMyWebSite</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>PortfolioWebsite</t>
+  </si>
+  <si>
+    <t>designcourse-gsportfolio</t>
   </si>
 </sst>
 </file>
@@ -486,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -537,7 +540,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -555,21 +558,21 @@
         <v>19</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G14" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
+        <f t="shared" ref="G2:G15" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
+        &lt;a href="src/designcourse-gsportfolio/index.html" target="_blank"&gt;designcourse-gsportfolio&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H2" s="3" t="str">
-        <f t="shared" ref="H2:H14" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
-        <v xml:space="preserve">Jocker"
-            width="460"
-            height="315"
-            src="src/Jocker/index.html"
+        <f t="shared" ref="H2:H15" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
+        <v xml:space="preserve">designcourse-gsportfolio"
+            width="460"
+            height="315"
+            src="src/designcourse-gsportfolio/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -579,17 +582,17 @@
       </v>
       </c>
       <c r="I2" s="7" t="str">
-        <f t="shared" ref="I2:I14" si="2">_xlfn.CONCAT($G2,$H2)</f>
+        <f t="shared" ref="I2:I15" si="2">_xlfn.CONCAT($G2,$H2)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Jocker"
-            width="460"
-            height="315"
-            src="src/Jocker/index.html"
+        &lt;a href="src/designcourse-gsportfolio/index.html" target="_blank"&gt;designcourse-gsportfolio&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="designcourse-gsportfolio"
+            width="460"
+            height="315"
+            src="src/designcourse-gsportfolio/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -601,7 +604,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -622,7 +625,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/MinimalBlogWebsite/index.html" target="_blank"&gt;MinimalBlogWebsite&lt;/a&gt;
+        &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -630,10 +633,10 @@
       </c>
       <c r="H3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">MinimalBlogWebsite"
-            width="460"
-            height="315"
-            src="src/MinimalBlogWebsite/index.html"
+        <v xml:space="preserve">Jocker"
+            width="460"
+            height="315"
+            src="src/Jocker/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -646,14 +649,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/MinimalBlogWebsite/index.html" target="_blank"&gt;MinimalBlogWebsite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="MinimalBlogWebsite"
-            width="460"
-            height="315"
-            src="src/MinimalBlogWebsite/index.html"
+        &lt;a href="src/Jocker/index.html" target="_blank"&gt;Jocker&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Jocker"
+            width="460"
+            height="315"
+            src="src/Jocker/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -665,7 +668,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -686,7 +689,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
+        &lt;a href="src/MinimalBlogWebsite/index.html" target="_blank"&gt;MinimalBlogWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -694,10 +697,10 @@
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">OhMyWebSite"
-            width="460"
-            height="315"
-            src="src/OhMyWebSite/index.html"
+        <v xml:space="preserve">MinimalBlogWebsite"
+            width="460"
+            height="315"
+            src="src/MinimalBlogWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -710,14 +713,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="OhMyWebSite"
-            width="460"
-            height="315"
-            src="src/OhMyWebSite/index.html"
+        &lt;a href="src/MinimalBlogWebsite/index.html" target="_blank"&gt;MinimalBlogWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="MinimalBlogWebsite"
+            width="460"
+            height="315"
+            src="src/MinimalBlogWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -729,7 +732,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -750,7 +753,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
+        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -758,10 +761,10 @@
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">PortfolioWebsite"
-            width="460"
-            height="315"
-            src="src/PortfolioWebsite/index.html"
+        <v xml:space="preserve">OhMyWebSite"
+            width="460"
+            height="315"
+            src="src/OhMyWebSite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -774,14 +777,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PortfolioWebsite"
-            width="460"
-            height="315"
-            src="src/PortfolioWebsite/index.html"
+        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="OhMyWebSite"
+            width="460"
+            height="315"
+            src="src/OhMyWebSite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -793,7 +796,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -814,7 +817,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
+        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -822,10 +825,10 @@
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveCardHover"
-            width="460"
-            height="315"
-            src="src/ResponsiveCardHover/index.html"
+        <v xml:space="preserve">PortfolioWebsite"
+            width="460"
+            height="315"
+            src="src/PortfolioWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -838,14 +841,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveCardHover"
-            width="460"
-            height="315"
-            src="src/ResponsiveCardHover/index.html"
+        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PortfolioWebsite"
+            width="460"
+            height="315"
+            src="src/PortfolioWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -857,7 +860,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -878,7 +881,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
+        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -886,10 +889,10 @@
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveDesignCSSImageHoverOverlayEffects"
-            width="460"
-            height="315"
-            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
+        <v xml:space="preserve">ResponsiveCardHover"
+            width="460"
+            height="315"
+            src="src/ResponsiveCardHover/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -902,14 +905,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveDesignCSSImageHoverOverlayEffects"
-            width="460"
-            height="315"
-            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
+        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveCardHover"
+            width="460"
+            height="315"
+            src="src/ResponsiveCardHover/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -921,7 +924,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -942,7 +945,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
+        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -950,10 +953,10 @@
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveFooterCSSGrid"
-            width="460"
-            height="315"
-            src="src/ResponsiveFooterCSSGrid/index.html"
+        <v xml:space="preserve">ResponsiveDesignCSSImageHoverOverlayEffects"
+            width="460"
+            height="315"
+            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -966,14 +969,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveFooterCSSGrid"
-            width="460"
-            height="315"
-            src="src/ResponsiveFooterCSSGrid/index.html"
+        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveDesignCSSImageHoverOverlayEffects"
+            width="460"
+            height="315"
+            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -985,7 +988,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1006,7 +1009,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
+        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1014,10 +1017,10 @@
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveHeaderUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
+        <v xml:space="preserve">ResponsiveFooterCSSGrid"
+            width="460"
+            height="315"
+            src="src/ResponsiveFooterCSSGrid/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1030,14 +1033,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveHeaderUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
+        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveFooterCSSGrid"
+            width="460"
+            height="315"
+            src="src/ResponsiveFooterCSSGrid/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1049,7 +1052,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1070,7 +1073,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
+        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1078,10 +1081,10 @@
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveLorukiWebsite"
-            width="460"
-            height="315"
-            src="src/ResponsiveLorukiWebsite/index.html"
+        <v xml:space="preserve">ResponsiveHeaderUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1094,14 +1097,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveLorukiWebsite"
-            width="460"
-            height="315"
-            src="src/ResponsiveLorukiWebsite/index.html"
+        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveHeaderUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1113,7 +1116,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1134,7 +1137,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
+        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1142,10 +1145,10 @@
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveTestimonialSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveTestimonialSlider/index.html"
+        <v xml:space="preserve">ResponsiveLorukiWebsite"
+            width="460"
+            height="315"
+            src="src/ResponsiveLorukiWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1158,14 +1161,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveTestimonialSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveTestimonialSlider/index.html"
+        &lt;a href="src/ResponsiveLorukiWebsite/index.html" target="_blank"&gt;ResponsiveLorukiWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveLorukiWebsite"
+            width="460"
+            height="315"
+            src="src/ResponsiveLorukiWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1177,7 +1180,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -1198,7 +1201,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
+        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1206,10 +1209,10 @@
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
+        <v xml:space="preserve">ResponsiveTestimonialSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveTestimonialSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1222,14 +1225,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
+        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveTestimonialSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveTestimonialSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1241,7 +1244,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1262,7 +1265,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
+        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1270,10 +1273,10 @@
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveWebsite-03VideoSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+        <v xml:space="preserve">ResponsiveWebsite-02"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1286,14 +1289,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-03VideoSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveWebsite-02"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1305,7 +1308,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1326,7 +1329,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;
+        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1334,6 +1337,70 @@
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">ResponsiveWebsite-03VideoSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveWebsite-03VideoSlider"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">ResponsiveWebsiteFood"
             width="460"
             height="315"
@@ -1346,7 +1413,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I14" s="7" t="str">
+      <c r="I15" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;

--- a/code.xlsx
+++ b/code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Responsive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58523F7D-80AF-4C0A-859F-724FDA1EA273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D67B65-1A68-40EC-9740-FBD944A42340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t>PortfolioWebsite</t>
   </si>
   <si>
-    <t>designcourse-gsportfolio</t>
+    <t>DesignCourse-GS-Portfolio</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -561,7 +561,7 @@
         <f t="shared" ref="G2:G15" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/designcourse-gsportfolio/index.html" target="_blank"&gt;designcourse-gsportfolio&lt;/a&gt;
+        &lt;a href="src/DesignCourse-GS-Portfolio/index.html" target="_blank"&gt;DesignCourse-GS-Portfolio&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -569,10 +569,10 @@
       </c>
       <c r="H2" s="3" t="str">
         <f t="shared" ref="H2:H15" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
-        <v xml:space="preserve">designcourse-gsportfolio"
-            width="460"
-            height="315"
-            src="src/designcourse-gsportfolio/index.html"
+        <v xml:space="preserve">DesignCourse-GS-Portfolio"
+            width="460"
+            height="315"
+            src="src/DesignCourse-GS-Portfolio/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -585,14 +585,14 @@
         <f t="shared" ref="I2:I15" si="2">_xlfn.CONCAT($G2,$H2)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/designcourse-gsportfolio/index.html" target="_blank"&gt;designcourse-gsportfolio&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="designcourse-gsportfolio"
-            width="460"
-            height="315"
-            src="src/designcourse-gsportfolio/index.html"
+        &lt;a href="src/DesignCourse-GS-Portfolio/index.html" target="_blank"&gt;DesignCourse-GS-Portfolio&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="DesignCourse-GS-Portfolio"
+            width="460"
+            height="315"
+            src="src/DesignCourse-GS-Portfolio/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen

--- a/code.xlsx
+++ b/code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Responsive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D67B65-1A68-40EC-9740-FBD944A42340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A1DF7-B05E-44CF-A381-5365EE1D5283}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
   <si>
     <t>OhMyWebSite</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>DesignCourse-GS-Portfolio</t>
+  </si>
+  <si>
+    <t>ResponsiveWebsiteHTMLCSSJavascript</t>
   </si>
 </sst>
 </file>
@@ -489,27 +492,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.73046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="1"/>
+    <col min="5" max="5" width="7.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -538,7 +541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -558,7 +561,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G15" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
+        <f t="shared" ref="G2:G16" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/DesignCourse-GS-Portfolio/index.html" target="_blank"&gt;DesignCourse-GS-Portfolio&lt;/a&gt;
@@ -568,7 +571,7 @@
             title="</v>
       </c>
       <c r="H2" s="3" t="str">
-        <f t="shared" ref="H2:H15" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
+        <f t="shared" ref="H2:H16" si="1">_xlfn.CONCAT($A2,$E2,$A2,$F2)</f>
         <v xml:space="preserve">DesignCourse-GS-Portfolio"
             width="460"
             height="315"
@@ -582,7 +585,7 @@
       </v>
       </c>
       <c r="I2" s="7" t="str">
-        <f t="shared" ref="I2:I15" si="2">_xlfn.CONCAT($G2,$H2)</f>
+        <f t="shared" ref="I2:I16" si="2">_xlfn.CONCAT($G2,$H2)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/DesignCourse-GS-Portfolio/index.html" target="_blank"&gt;DesignCourse-GS-Portfolio&lt;/a&gt;
@@ -602,7 +605,7 @@
       </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -666,7 +669,7 @@
       </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -730,7 +733,7 @@
       </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -794,7 +797,7 @@
       </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -858,7 +861,7 @@
       </v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -922,7 +925,7 @@
       </v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -986,7 +989,7 @@
       </v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1053,7 @@
       </v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1114,7 +1117,7 @@
       </v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1178,7 +1181,7 @@
       </v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1242,7 +1245,7 @@
       </v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -1306,7 +1309,7 @@
       </v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1373,7 @@
       </v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -1425,6 +1428,70 @@
             width="460"
             height="315"
             src="src/ResponsiveWebsiteFood/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveWebsiteHTMLCSSJavascript/index.html" target="_blank"&gt;ResponsiveWebsiteHTMLCSSJavascript&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">ResponsiveWebsiteHTMLCSSJavascript"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsiteHTMLCSSJavascript/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ResponsiveWebsiteHTMLCSSJavascript/index.html" target="_blank"&gt;ResponsiveWebsiteHTMLCSSJavascript&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveWebsiteHTMLCSSJavascript"
+            width="460"
+            height="315"
+            src="src/ResponsiveWebsiteHTMLCSSJavascript/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen

--- a/code.xlsx
+++ b/code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Responsive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A1DF7-B05E-44CF-A381-5365EE1D5283}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4860E114-9871-4286-9190-62F0FA9481DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>ResponsiveTestimonialSlider</t>
   </si>
   <si>
-    <t>ResponsiveWebsite-02</t>
-  </si>
-  <si>
     <t>ResponsiveWebsite-03VideoSlider</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>ResponsiveWebsiteHTMLCSSJavascript</t>
+  </si>
+  <si>
+    <t>WebsiteAnimationOnSCroll</t>
   </si>
 </sst>
 </file>
@@ -495,70 +495,70 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="7.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.53125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.53125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G16" si="0">_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
@@ -605,24 +605,24 @@
       </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -669,24 +669,24 @@
       </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -733,24 +733,24 @@
       </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -797,24 +797,24 @@
       </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -861,24 +861,24 @@
       </v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -925,24 +925,24 @@
       </v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -989,24 +989,24 @@
       </v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1053,24 +1053,24 @@
       </v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1117,24 +1117,24 @@
       </v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1181,24 +1181,24 @@
       </v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1245,30 +1245,30 @@
       </v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
+        &lt;a href="src/WebsiteAnimationOnSCroll/index.html" target="_blank"&gt;WebsiteAnimationOnSCroll&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1276,10 +1276,10 @@
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
+        <v xml:space="preserve">WebsiteAnimationOnSCroll"
+            width="460"
+            height="315"
+            src="src/WebsiteAnimationOnSCroll/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1292,14 +1292,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
+        &lt;a href="src/WebsiteAnimationOnSCroll/index.html" target="_blank"&gt;WebsiteAnimationOnSCroll&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="WebsiteAnimationOnSCroll"
+            width="460"
+            height="315"
+            src="src/WebsiteAnimationOnSCroll/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1309,24 +1309,24 @@
       </v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1373,24 +1373,24 @@
       </v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1437,24 +1437,24 @@
       </v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="0"/>
